--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.00319999999999</v>
+        <v>-11.64929999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.0924</v>
+        <v>4.965999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.9102</v>
+        <v>-21.8295</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.160999999999996</v>
+        <v>-7.9452</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5698</v>
+        <v>-21.55210000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.482099999999997</v>
+        <v>-7.741700000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.604299999999994</v>
+        <v>4.561799999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.0236</v>
+        <v>-22.02560000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.97449999999999</v>
+        <v>-11.6268</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.2146</v>
+        <v>-11.48170000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.964800000000002</v>
+        <v>8.5824</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.01129999999999</v>
+        <v>-12.89539999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.062000000000005</v>
+        <v>4.885100000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.076800000000001</v>
+        <v>4.991700000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.931200000000001</v>
+        <v>4.900300000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.265499999999998</v>
+        <v>-9.139799999999994</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.865599999999998</v>
+        <v>-7.705300000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.2442</v>
+        <v>-19.52919999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.576699999999988</v>
+        <v>9.633799999999985</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.7769</v>
+        <v>-11.83410000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.284899999999999</v>
+        <v>-8.247499999999997</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.8139</v>
+        <v>-12.88119999999998</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.9322</v>
+        <v>-12.2209</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.4328</v>
+        <v>-8.024500000000003</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.30359999999999</v>
+        <v>-22.0179</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.718999999999995</v>
+        <v>-7.989999999999994</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.59149999999999</v>
+        <v>-12.679</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.50540000000001</v>
+        <v>-21.48800000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.548800000000003</v>
+        <v>4.587099999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.920499999999995</v>
+        <v>-7.033499999999997</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.65130000000001</v>
+        <v>-12.511</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.574900000000001</v>
+        <v>5.693899999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.05089999999998</v>
+        <v>-19.88849999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.90749999999997</v>
+        <v>-19.86239999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.430399999999996</v>
+        <v>-7.669099999999998</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.507999999999999</v>
+        <v>5.279999999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.700999999999997</v>
+        <v>4.621299999999996</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.1737</v>
+        <v>-6.253899999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.5227</v>
+        <v>-12.1236</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.508800000000003</v>
+        <v>5.381600000000005</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.616300000000003</v>
+        <v>5.447800000000004</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.447999999999993</v>
+        <v>9.758899999999993</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.78670000000001</v>
+        <v>-12.49710000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.316400000000005</v>
+        <v>8.540500000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
